--- a/xlsx/亚马逊河_intext.xlsx
+++ b/xlsx/亚马逊河_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>亚马逊河</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E8%92%82%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>萊蒂西亞</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_亚马逊河</t>
+    <t>莱蒂西亚</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_亚马逊河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%B0%BC%E7%BF%81%E6%B2%B3</t>
   </si>
   <si>
-    <t>馬拉尼翁河</t>
+    <t>马拉尼翁河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E6%99%AE%E6%8B%89%E6%B2%B3</t>
@@ -71,25 +71,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%9C%96%E9%A6%AC%E7%B4%84%E6%B2%B3</t>
   </si>
   <si>
-    <t>普圖馬約河</t>
+    <t>普图马约河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%8D%A1%E4%BA%9E%E5%88%A9%E6%B2%B3</t>
   </si>
   <si>
-    <t>烏卡亞利河</t>
+    <t>乌卡亚利河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E6%96%AF%E6%B2%B3</t>
   </si>
   <si>
-    <t>普魯斯河</t>
+    <t>普鲁斯河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E4%BB%A3%E6%8B%89%E6%B2%B3</t>
   </si>
   <si>
-    <t>瑪代拉河</t>
+    <t>玛代拉河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%B8%95%E8%8B%A5%E6%96%AF%E6%B2%B3</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E8%B2%BB</t>
   </si>
   <si>
-    <t>特費</t>
+    <t>特费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A1%94%E5%A4%B8%E8%92%82%E4%BA%9A%E6%8B%89</t>
@@ -137,25 +137,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%AF%94%E5%A4%9A%E6%96%AF</t>
   </si>
   <si>
-    <t>奧比多斯</t>
+    <t>奥比多斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%80%AB</t>
   </si>
   <si>
-    <t>聖塔倫</t>
+    <t>圣塔伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%A2%85%E6%9E%97_(%E5%B8%95%E6%8B%89%E5%B7%9E)</t>
   </si>
   <si>
-    <t>阿爾梅林 (帕拉州)</t>
+    <t>阿尔梅林 (帕拉州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8D%A1%E5%B8%95</t>
   </si>
   <si>
-    <t>馬卡帕</t>
+    <t>马卡帕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%AC%AC%E6%96%AF%E5%B1%B1%E8%84%89</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%98%E5%B0%BC%E6%98%82%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬臘尼昂州</t>
+    <t>马腊尼昂州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1542%E5%B9%B4</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%E7%A7%91%C2%B7%E5%BE%B7%C2%B7%E5%A5%A7%E9%9B%B7%E4%BA%9E%E7%B4%8D</t>
   </si>
   <si>
-    <t>法蘭西斯科·德·奧雷亞納</t>
+    <t>法兰西斯科·德·奥雷亚纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
@@ -347,25 +347,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%98%8E%E6%9C%83</t>
   </si>
   <si>
-    <t>道明會</t>
+    <t>道明会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%96%AF%E5%B8%95%E7%88%BE%C2%B7%E5%BE%B7%C2%B7%E5%8D%A1%E7%99%BC%E8%80%B6</t>
   </si>
   <si>
-    <t>加斯帕爾·德·卡發耶</t>
+    <t>加斯帕尔·德·卡发耶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>希臘神話</t>
+    <t>希腊神话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞馬遜人</t>
+    <t>亚马逊人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -377,19 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%BE%85%E6%B2%B3</t>
   </si>
   <si>
-    <t>尼羅河</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E6%96%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>安地斯山脈</t>
+    <t>安地斯山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%8B%94</t>
@@ -413,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%99%AE%E9%87%8C%E9%A6%AC%E5%85%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>阿普里馬克河</t>
+    <t>阿普里马克河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%A9%AC%E9%80%8A%E9%9B%A8%E6%9E%97</t>
@@ -467,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E7%91%99%E6%96%AF</t>
   </si>
   <si>
-    <t>瑪瑙斯</t>
+    <t>玛瑙斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
@@ -479,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E8%8B%A5%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬拉若島</t>
+    <t>马拉若岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
@@ -491,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E4%BA%BA%E9%AD%9A</t>
   </si>
   <si>
-    <t>食人魚</t>
+    <t>食人鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%87</t>
@@ -509,19 +503,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E7%BE%85%E7%B4%8D%E6%B2%B3</t>
   </si>
   <si>
-    <t>莫羅納河</t>
+    <t>莫罗纳河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%96%AF%E5%A1%94%E8%96%A9%E6%B2%B3</t>
   </si>
   <si>
-    <t>帕斯塔薩河</t>
+    <t>帕斯塔萨河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E4%BA%9E%E5%8A%A0%E6%B2%B3</t>
   </si>
   <si>
-    <t>瓦亞加河</t>
+    <t>瓦亚加河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E6%A0%BC%E9%9B%B7%E6%B2%B3</t>
@@ -533,31 +527,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%80%A3%E7%89%B9%E6%B2%B3</t>
   </si>
   <si>
-    <t>科連特河</t>
+    <t>科连特河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E9%9B%B7%E5%85%A7%E6%B2%B3</t>
   </si>
   <si>
-    <t>佩雷內河</t>
+    <t>佩雷内河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%B4%8D%E6%B2%B3_(%E5%8D%97%E7%BE%8E%E6%B4%B2)</t>
   </si>
   <si>
-    <t>埃納河 (南美洲)</t>
+    <t>埃纳河 (南美洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E9%AD%AF%E7%8F%AD%E5%B7%B4%E6%B2%B3</t>
   </si>
   <si>
-    <t>烏魯班巴河</t>
+    <t>乌鲁班巴河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%B3%A2%E6%B2%B3</t>
   </si>
   <si>
-    <t>納波河</t>
+    <t>纳波河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%93%9C%E9%87%8C%E7%A7%91%E6%B2%B3</t>
@@ -569,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E8%B3%B4%E6%B2%B3</t>
   </si>
   <si>
-    <t>庫拉賴河</t>
+    <t>库拉赖河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%93%87%E5%88%A9%E6%B2%B3</t>
@@ -581,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%BE%8D%E8%B2%9D%E5%A1%94%E6%96%AF%E6%B2%B3</t>
   </si>
   <si>
-    <t>特龍貝塔斯河</t>
+    <t>特龙贝塔斯河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A9%E6%96%AF%E7%9A%AE%E9%87%8C%E6%96%AF%E6%B2%B3</t>
@@ -593,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B9%E9%AD%AF%E5%9F%83%E7%B4%8D%E6%B2%B3</t>
   </si>
   <si>
-    <t>茹魯埃納河</t>
+    <t>茹鲁埃纳河</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Brazilian_Institute_of_Geography_and_Statistics</t>
@@ -611,19 +605,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%8F%BE%E4%B9%8B%E6%97%85</t>
   </si>
   <si>
-    <t>發現之旅</t>
+    <t>发现之旅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%8F%BE%E4%B9%8B%E6%97%85%E5%8F%A2%E6%9B%B8%E6%9B%B8%E7%9B%AE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>發現之旅叢書書目列表</t>
+    <t>发现之旅丛书书目列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%A0%B1%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>時報文化</t>
+    <t>时报文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Encyclop%C3%A6dia_Britannica</t>
@@ -641,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -665,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2805,7 +2799,7 @@
         <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2831,10 +2825,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2860,10 +2854,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2889,10 +2883,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -2918,10 +2912,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2947,10 +2941,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2976,10 +2970,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -3005,10 +2999,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>4</v>
@@ -3034,10 +3028,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3063,10 +3057,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3092,10 +3086,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3121,10 +3115,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3150,10 +3144,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -3179,10 +3173,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3208,10 +3202,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3237,10 +3231,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3266,10 +3260,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3295,10 +3289,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3324,10 +3318,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3353,10 +3347,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3382,10 +3376,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3411,10 +3405,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3469,10 +3463,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3498,10 +3492,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3527,10 +3521,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3556,10 +3550,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3585,10 +3579,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3614,10 +3608,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3643,10 +3637,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3672,10 +3666,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3701,10 +3695,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3730,10 +3724,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3759,10 +3753,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3788,10 +3782,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3875,10 +3869,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3904,10 +3898,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3933,10 +3927,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3962,10 +3956,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3991,10 +3985,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4020,10 +4014,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F104" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -4049,10 +4043,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F105" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4078,10 +4072,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G106" t="n">
         <v>28</v>
@@ -4107,10 +4101,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4136,10 +4130,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -4165,10 +4159,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4194,10 +4188,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -4223,10 +4217,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4252,10 +4246,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4281,10 +4275,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4310,10 +4304,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
